--- a/test_data/Выкупы.xlsx
+++ b/test_data/Выкупы.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Astrocatling\WBbot\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EA6276-07D8-4794-9F7D-37EFF566C6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C56D0D-AF85-4A9A-8E74-3560091F17BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3930" yWindow="3000" windowWidth="28100" windowHeight="15910" xr2:uid="{3D39B954-54E1-433D-BDD4-09D5FB40C627}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Серьги для девочек</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>Количество необходимых ПВЗ</t>
-  </si>
-  <si>
-    <t>Order ID</t>
   </si>
 </sst>
 </file>
@@ -429,7 +426,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="A3:E4"/>
+      <selection activeCell="E1" sqref="E1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -454,9 +451,6 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3">
@@ -470,9 +464,6 @@
       </c>
       <c r="D2">
         <v>1</v>
-      </c>
-      <c r="E2">
-        <v>123</v>
       </c>
       <c r="F2" s="1"/>
     </row>

--- a/test_data/Выкупы.xlsx
+++ b/test_data/Выкупы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Astrocatling\WBbot\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C56D0D-AF85-4A9A-8E74-3560091F17BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828F64C0-4185-483B-BA46-DBCBE9A487A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3930" yWindow="3000" windowWidth="28100" windowHeight="15910" xr2:uid="{3D39B954-54E1-433D-BDD4-09D5FB40C627}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -463,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1"/>
     </row>

--- a/test_data/Выкупы.xlsx
+++ b/test_data/Выкупы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Astrocatling\WBbot\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828F64C0-4185-483B-BA46-DBCBE9A487A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91D77CF-5374-482A-9A18-6EAFAAF6AC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3930" yWindow="3000" windowWidth="28100" windowHeight="15910" xr2:uid="{3D39B954-54E1-433D-BDD4-09D5FB40C627}"/>
   </bookViews>
@@ -463,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1"/>
     </row>

--- a/test_data/Выкупы.xlsx
+++ b/test_data/Выкупы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Astrocatling\WBbot\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91D77CF-5374-482A-9A18-6EAFAAF6AC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1210C7D4-38DC-4A25-AEEB-3745FFF63687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="3000" windowWidth="28100" windowHeight="15910" xr2:uid="{3D39B954-54E1-433D-BDD4-09D5FB40C627}"/>
+    <workbookView xWindow="2480" yWindow="1520" windowWidth="28080" windowHeight="15910" xr2:uid="{3D39B954-54E1-433D-BDD4-09D5FB40C627}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -32,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Серьги для девочек</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Артикул</t>
   </si>
@@ -47,6 +44,9 @@
   </si>
   <si>
     <t>Количество необходимых ПВЗ</t>
+  </si>
+  <si>
+    <t>пирcинг</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -440,24 +440,24 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3">
-        <v>44398622</v>
+        <v>63266967</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -468,7 +468,18 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3"/>
+      <c r="A3" s="3">
+        <v>63266966</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">

--- a/test_data/Выкупы.xlsx
+++ b/test_data/Выкупы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Astrocatling\WBbot\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1210C7D4-38DC-4A25-AEEB-3745FFF63687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0389D4DC-8060-424F-99FF-527CC75647D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="1520" windowWidth="28080" windowHeight="15910" xr2:uid="{3D39B954-54E1-433D-BDD4-09D5FB40C627}"/>
+    <workbookView xWindow="850" yWindow="-110" windowWidth="37660" windowHeight="21820" xr2:uid="{3D39B954-54E1-433D-BDD4-09D5FB40C627}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Артикул</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Количество необходимых ПВЗ</t>
   </si>
   <si>
-    <t>пирcинг</t>
+    <t>пирсинг</t>
   </si>
 </sst>
 </file>
@@ -454,7 +454,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3">
-        <v>63266967</v>
+        <v>44117924</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -468,18 +468,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3">
-        <v>63266966</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
+      <c r="A3" s="3"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">

--- a/test_data/Выкупы.xlsx
+++ b/test_data/Выкупы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Astrocatling\WBbot\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1210C7D4-38DC-4A25-AEEB-3745FFF63687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FA74DD-C849-4BE2-B0C3-E45EA275CA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="1520" windowWidth="28080" windowHeight="15910" xr2:uid="{3D39B954-54E1-433D-BDD4-09D5FB40C627}"/>
+    <workbookView xWindow="960" yWindow="-110" windowWidth="37550" windowHeight="21820" xr2:uid="{3D39B954-54E1-433D-BDD4-09D5FB40C627}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Артикул</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Количество необходимых ПВЗ</t>
   </si>
   <si>
-    <t>пирcинг</t>
+    <t>Пирсинг</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -454,7 +454,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3">
-        <v>63266967</v>
+        <v>63266965</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -468,18 +468,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3">
-        <v>63266966</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
+      <c r="A3" s="3"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">

--- a/test_data/Выкупы.xlsx
+++ b/test_data/Выкупы.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Astrocatling\WBbot\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FA74DD-C849-4BE2-B0C3-E45EA275CA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244B42A0-068D-4EBE-A2D1-C5A1AB34015B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="-110" windowWidth="37550" windowHeight="21820" xr2:uid="{3D39B954-54E1-433D-BDD4-09D5FB40C627}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Артикул</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Пирсинг</t>
+  </si>
+  <si>
+    <t>Пирсинг обманка</t>
   </si>
 </sst>
 </file>
@@ -426,7 +429,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -454,10 +457,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3">
-        <v>63266965</v>
+        <v>53597951</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -468,7 +471,18 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3"/>
+      <c r="A3" s="3">
+        <v>63266965</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">

--- a/test_data/Выкупы.xlsx
+++ b/test_data/Выкупы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Astrocatling\WBbot\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244B42A0-068D-4EBE-A2D1-C5A1AB34015B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A72226-3B7D-4357-8ED1-3CE629EC85B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="-110" windowWidth="37550" windowHeight="21820" xr2:uid="{3D39B954-54E1-433D-BDD4-09D5FB40C627}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Артикул</t>
   </si>
@@ -49,7 +49,10 @@
     <t>Пирсинг</t>
   </si>
   <si>
-    <t>Пирсинг обманка</t>
+    <t>inn</t>
+  </si>
+  <si>
+    <t>312333011857</t>
   </si>
 </sst>
 </file>
@@ -105,13 +108,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -429,7 +433,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -438,6 +442,7 @@
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="11.7265625" customWidth="1"/>
     <col min="4" max="4" width="29.54296875" customWidth="1"/>
+    <col min="5" max="5" width="55.54296875" customWidth="1"/>
     <col min="6" max="6" width="47.6328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -454,35 +459,29 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3">
-        <v>53597951</v>
+        <v>63266965</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3">
-        <v>63266965</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">

--- a/test_data/Выкупы.xlsx
+++ b/test_data/Выкупы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Astrocatling\WBbot\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A72226-3B7D-4357-8ED1-3CE629EC85B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F099E915-9ABE-46ED-8CD9-ABF1B5D4E0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="-110" windowWidth="37550" windowHeight="21820" xr2:uid="{3D39B954-54E1-433D-BDD4-09D5FB40C627}"/>
+    <workbookView xWindow="2480" yWindow="1520" windowWidth="28080" windowHeight="15910" xr2:uid="{3D39B954-54E1-433D-BDD4-09D5FB40C627}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Артикул</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>312333011857</t>
+  </si>
+  <si>
+    <t>Пирсинг обманка</t>
   </si>
 </sst>
 </file>
@@ -433,7 +436,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -482,6 +485,21 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
+      <c r="A3">
+        <v>53597951</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">

--- a/test_data/Выкупы.xlsx
+++ b/test_data/Выкупы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Astrocatling\WBbot\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F099E915-9ABE-46ED-8CD9-ABF1B5D4E0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD72B1F3-DD75-4FE7-A6FF-1D32764BE56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="1520" windowWidth="28080" windowHeight="15910" xr2:uid="{3D39B954-54E1-433D-BDD4-09D5FB40C627}"/>
+    <workbookView xWindow="960" yWindow="-110" windowWidth="37550" windowHeight="21820" xr2:uid="{3D39B954-54E1-433D-BDD4-09D5FB40C627}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>Артикул</t>
   </si>
@@ -46,16 +46,16 @@
     <t>Количество необходимых ПВЗ</t>
   </si>
   <si>
-    <t>Пирсинг</t>
-  </si>
-  <si>
     <t>inn</t>
   </si>
   <si>
-    <t>312333011857</t>
-  </si>
-  <si>
-    <t>Пирсинг обманка</t>
+    <t>381108544328</t>
+  </si>
+  <si>
+    <t>купальник женский раздельный с высокой талией</t>
+  </si>
+  <si>
+    <t>слитный купальник женский утягивающий</t>
   </si>
 </sst>
 </file>
@@ -84,11 +84,12 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="7"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,8 +118,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -433,16 +434,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC5D944-6DD4-458D-AE01-0CEC5CCC11F0}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A4" sqref="A4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="9.81640625" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="2" max="2" width="52.36328125" customWidth="1"/>
     <col min="3" max="3" width="11.7265625" customWidth="1"/>
     <col min="4" max="4" width="29.54296875" customWidth="1"/>
     <col min="5" max="5" width="55.54296875" customWidth="1"/>
@@ -463,15 +464,15 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3">
-        <v>63266965</v>
+      <c r="A2" s="4">
+        <v>90086267</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -479,17 +480,17 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>53597951</v>
+        <v>90086484</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -497,13 +498,44 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>6</v>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3"/>
+      <c r="A4">
+        <v>90086527</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>90085903</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
